--- a/medicine/Psychotrope/Green_Tea/Green_Tea.xlsx
+++ b/medicine/Psychotrope/Green_Tea/Green_Tea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Green Tea (绿茶, Lü cha) est un film chinois réalisé par Zhang Yuan, sorti en 2003.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fang, une étudiante récemment diplômée, prend régulièrement des rendez-vous galants avec des hommes inconnus. À chaque fois, elle commande une tasse de thé vert afin d'y voir si sa nouvelle rencontre est compatible avec elle. Chen, un de ces prétendants, trouve que tout cela est bien vain. Il ne sait pas lire les prédictions dans le thé vert mais pense bien connaître les femmes. Fang et Chen, chacun avec leur passé propre et leur certitude sur l'amour, se suivent et s'épient. Mais Chen découvre rapidement que leur destin est entre les mains d'une tierce personne, la mystérieuse Lang...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Green Tea
 Titre original : 绿茶 (chinois traditionnel : 綠茶 ; pinyin : lǜchá)
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jiang Wen : Chen Ming-liang
 Zhao Wei : Wu Fang / Lang-lang
@@ -623,7 +641,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le tournage s'est déroulé à Pékin.
 Le film fut projeté le 11 mars 2004 au Festival du film asiatique de Deauville.</t>
